--- a/Masterarbeit Aufgaben.xlsx
+++ b/Masterarbeit Aufgaben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Tag</t>
   </si>
@@ -83,6 +83,25 @@
   <si>
     <t>besser aufschreiben/dokumentieren und
 mnist test auf geladenem model machen</t>
+  </si>
+  <si>
+    <t>1) Mappings durchmischen
+2) Batch-producer gebaut der ein NN mit Testdaten versorgt
+3) Laden und speichern von gewöhnlichen Objekten mit pickle</t>
+  </si>
+  <si>
+    <t>Mappings sind jetzt gemischt
+File mit Format (item1,item2\nitem2,item3)
+kann generiert werden
+Der Batch producer produziert daraus one-hot encoded 
+vectoren von z batches</t>
+  </si>
+  <si>
+    <t>Problematisch: Sessions werden ver-
+mischt. Es findet keine Trennung der
+Sessions beim Training statt.
+Item2Item-similarity ist momentan
+alles was beachtet wird</t>
   </si>
 </sst>
 </file>
@@ -178,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -494,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +527,7 @@
     <col min="3" max="3" width="58.5703125" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
@@ -594,7 +616,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -671,13 +693,22 @@
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43036</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -688,7 +719,7 @@
       <c r="D15" s="3"/>
       <c r="G15">
         <f>SUM(B9:B15)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
